--- a/output/18_learn_rate_0.005/full.xlsx
+++ b/output/18_learn_rate_0.005/full.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005</v>
+        <v>0.0001</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -491,40 +491,168 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>0.005</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.967199981212616</v>
+        <v>0.9932000041007996</v>
       </c>
       <c r="L2" t="n">
-        <v>0.933899998664856</v>
+        <v>0.9843000173568726</v>
       </c>
       <c r="M2" t="n">
-        <v>113.91</v>
+        <v>123.85</v>
       </c>
       <c r="N2" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="O2" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.6955</v>
+        <v>7.7406</v>
       </c>
       <c r="R2" t="n">
-        <v>0.967199981212616</v>
+        <v>0.9922999739646912</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9656000137329102</v>
+        <v>0.9909999966621399</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9656000137329102</v>
+        <v>0.9909999966621399</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>('tanh', 'relu')</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9937000274658203</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9853000044822693</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100.529</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7.733</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9918000102043152</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9915000200271606</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9915000200271606</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>200</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>('tanh', 'relu')</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9926999807357788</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9824000000953674</v>
+      </c>
+      <c r="M4" t="n">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0113</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0112</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.3117</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9911999702453613</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9896000027656555</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9896000027656555</v>
       </c>
     </row>
   </sheetData>
